--- a/docs/pages/tools/material_table_maker/excel/f_メモリーフラグメント・グランピース・チケット・その他.xlsx
+++ b/docs/pages/tools/material_table_maker/excel/f_メモリーフラグメント・グランピース・チケット・その他.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\PSNOVA\docs\pages\tools\material_table_maker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C30E7C3-7E3D-4A07-A7B8-D0AAB2803754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC70331-1733-4892-A6AF-14659B270BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>名称</t>
   </si>
@@ -226,6 +226,22 @@
   </si>
   <si>
     <t>グランピース(闇属性)</t>
+  </si>
+  <si>
+    <t>メモリーフラグメントL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリーフラグメントM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度 SH Lv151～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度 SH Lv175～?</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -550,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -776,82 +792,82 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="E25" t="s">
-        <v>43</v>
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="E27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
+      <c r="E29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -859,7 +875,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -867,7 +883,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -875,9 +891,25 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>7</v>
       </c>
     </row>
